--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.909739819982279</v>
+        <v>34.111822</v>
       </c>
       <c r="H2">
-        <v>8.909739819982279</v>
+        <v>102.335466</v>
       </c>
       <c r="I2">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="J2">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.945699131313935</v>
+        <v>2.127396333333333</v>
       </c>
       <c r="N2">
-        <v>0.945699131313935</v>
+        <v>6.382189</v>
       </c>
       <c r="O2">
-        <v>0.03841054029266249</v>
+        <v>0.06137654768277986</v>
       </c>
       <c r="P2">
-        <v>0.03841054029266249</v>
+        <v>0.06137654768277986</v>
       </c>
       <c r="Q2">
-        <v>8.425933207990418</v>
+        <v>72.56936504611933</v>
       </c>
       <c r="R2">
-        <v>8.425933207990418</v>
+        <v>653.124285415074</v>
       </c>
       <c r="S2">
-        <v>0.006465277521836731</v>
+        <v>0.02595524526630754</v>
       </c>
       <c r="T2">
-        <v>0.006465277521836731</v>
+        <v>0.02595524526630754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.909739819982279</v>
+        <v>34.111822</v>
       </c>
       <c r="H3">
-        <v>8.909739819982279</v>
+        <v>102.335466</v>
       </c>
       <c r="I3">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="J3">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.71080414568221</v>
+        <v>3.721182333333333</v>
       </c>
       <c r="N3">
-        <v>3.71080414568221</v>
+        <v>11.163547</v>
       </c>
       <c r="O3">
-        <v>0.1507181168263015</v>
+        <v>0.1073581454191429</v>
       </c>
       <c r="P3">
-        <v>0.1507181168263015</v>
+        <v>0.1073581454191429</v>
       </c>
       <c r="Q3">
-        <v>33.06229946094011</v>
+        <v>126.9363093842113</v>
       </c>
       <c r="R3">
-        <v>33.06229946094011</v>
+        <v>1142.426784457902</v>
       </c>
       <c r="S3">
-        <v>0.02536893377250396</v>
+        <v>0.04540019112986966</v>
       </c>
       <c r="T3">
-        <v>0.02536893377250396</v>
+        <v>0.04540019112986966</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.909739819982279</v>
+        <v>34.111822</v>
       </c>
       <c r="H4">
-        <v>8.909739819982279</v>
+        <v>102.335466</v>
       </c>
       <c r="I4">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="J4">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.9643201768877</v>
+        <v>28.81280933333333</v>
       </c>
       <c r="N4">
-        <v>19.9643201768877</v>
+        <v>86.43842799999999</v>
       </c>
       <c r="O4">
-        <v>0.810871342881036</v>
+        <v>0.8312653068980773</v>
       </c>
       <c r="P4">
-        <v>0.810871342881036</v>
+        <v>0.8312653068980772</v>
       </c>
       <c r="Q4">
-        <v>177.876898458892</v>
+        <v>982.8574232986051</v>
       </c>
       <c r="R4">
-        <v>177.876898458892</v>
+        <v>8845.716809687447</v>
       </c>
       <c r="S4">
-        <v>0.1364861891107477</v>
+        <v>0.3515299529948211</v>
       </c>
       <c r="T4">
-        <v>0.1364861891107477</v>
+        <v>0.3515299529948211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.7214974219195</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H5">
-        <v>34.7214974219195</v>
+        <v>104.646338</v>
       </c>
       <c r="I5">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490296</v>
       </c>
       <c r="J5">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490295</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.945699131313935</v>
+        <v>2.127396333333333</v>
       </c>
       <c r="N5">
-        <v>0.945699131313935</v>
+        <v>6.382189</v>
       </c>
       <c r="O5">
-        <v>0.03841054029266249</v>
+        <v>0.06137654768277986</v>
       </c>
       <c r="P5">
-        <v>0.03841054029266249</v>
+        <v>0.06137654768277986</v>
       </c>
       <c r="Q5">
-        <v>32.83608994982831</v>
+        <v>74.20807858598688</v>
       </c>
       <c r="R5">
-        <v>32.83608994982831</v>
+        <v>667.872707273882</v>
       </c>
       <c r="S5">
-        <v>0.02519536163143478</v>
+        <v>0.02654134949667322</v>
       </c>
       <c r="T5">
-        <v>0.02519536163143478</v>
+        <v>0.02654134949667321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.7214974219195</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H6">
-        <v>34.7214974219195</v>
+        <v>104.646338</v>
       </c>
       <c r="I6">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490296</v>
       </c>
       <c r="J6">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490295</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.71080414568221</v>
+        <v>3.721182333333333</v>
       </c>
       <c r="N6">
-        <v>3.71080414568221</v>
+        <v>11.163547</v>
       </c>
       <c r="O6">
-        <v>0.1507181168263015</v>
+        <v>0.1073581454191429</v>
       </c>
       <c r="P6">
-        <v>0.1507181168263015</v>
+        <v>0.1073581454191429</v>
       </c>
       <c r="Q6">
-        <v>128.8446765775531</v>
+        <v>129.8027014045429</v>
       </c>
       <c r="R6">
-        <v>128.8446765775531</v>
+        <v>1168.224312640886</v>
       </c>
       <c r="S6">
-        <v>0.09886342209492203</v>
+        <v>0.04642538830321975</v>
       </c>
       <c r="T6">
-        <v>0.09886342209492203</v>
+        <v>0.04642538830321975</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.7214974219195</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H7">
-        <v>34.7214974219195</v>
+        <v>104.646338</v>
       </c>
       <c r="I7">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490296</v>
       </c>
       <c r="J7">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490295</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.9643201768877</v>
+        <v>28.81280933333333</v>
       </c>
       <c r="N7">
-        <v>19.9643201768877</v>
+        <v>86.43842799999999</v>
       </c>
       <c r="O7">
-        <v>0.810871342881036</v>
+        <v>0.8312653068980773</v>
       </c>
       <c r="P7">
-        <v>0.810871342881036</v>
+        <v>0.8312653068980772</v>
       </c>
       <c r="Q7">
-        <v>693.1910915521818</v>
+        <v>1005.051661408518</v>
       </c>
       <c r="R7">
-        <v>693.1910915521818</v>
+        <v>9045.464952676663</v>
       </c>
       <c r="S7">
-        <v>0.5318903760475767</v>
+        <v>0.3594679705491367</v>
       </c>
       <c r="T7">
-        <v>0.5318903760475767</v>
+        <v>0.3594679705491365</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.30197702410311</v>
+        <v>11.67052633333333</v>
       </c>
       <c r="H8">
-        <v>9.30197702410311</v>
+        <v>35.011579</v>
       </c>
       <c r="I8">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599722</v>
       </c>
       <c r="J8">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599721</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.945699131313935</v>
+        <v>2.127396333333333</v>
       </c>
       <c r="N8">
-        <v>0.945699131313935</v>
+        <v>6.382189</v>
       </c>
       <c r="O8">
-        <v>0.03841054029266249</v>
+        <v>0.06137654768277986</v>
       </c>
       <c r="P8">
-        <v>0.03841054029266249</v>
+        <v>0.06137654768277986</v>
       </c>
       <c r="Q8">
-        <v>8.796871591196494</v>
+        <v>24.82783492960344</v>
       </c>
       <c r="R8">
-        <v>8.796871591196494</v>
+        <v>223.450514366431</v>
       </c>
       <c r="S8">
-        <v>0.006749901139390979</v>
+        <v>0.008879952919799112</v>
       </c>
       <c r="T8">
-        <v>0.006749901139390979</v>
+        <v>0.008879952919799108</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.30197702410311</v>
+        <v>11.67052633333333</v>
       </c>
       <c r="H9">
-        <v>9.30197702410311</v>
+        <v>35.011579</v>
       </c>
       <c r="I9">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599722</v>
       </c>
       <c r="J9">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599721</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.71080414568221</v>
+        <v>3.721182333333333</v>
       </c>
       <c r="N9">
-        <v>3.71080414568221</v>
+        <v>11.163547</v>
       </c>
       <c r="O9">
-        <v>0.1507181168263015</v>
+        <v>0.1073581454191429</v>
       </c>
       <c r="P9">
-        <v>0.1507181168263015</v>
+        <v>0.1073581454191429</v>
       </c>
       <c r="Q9">
-        <v>34.51781490408248</v>
+        <v>43.42815641230144</v>
       </c>
       <c r="R9">
-        <v>34.51781490408248</v>
+        <v>390.8534077107129</v>
       </c>
       <c r="S9">
-        <v>0.02648576095887552</v>
+        <v>0.01553256598605347</v>
       </c>
       <c r="T9">
-        <v>0.02648576095887552</v>
+        <v>0.01553256598605346</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.30197702410311</v>
+        <v>11.67052633333333</v>
       </c>
       <c r="H10">
-        <v>9.30197702410311</v>
+        <v>35.011579</v>
       </c>
       <c r="I10">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599722</v>
       </c>
       <c r="J10">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.9643201768877</v>
+        <v>28.81280933333333</v>
       </c>
       <c r="N10">
-        <v>19.9643201768877</v>
+        <v>86.43842799999999</v>
       </c>
       <c r="O10">
-        <v>0.810871342881036</v>
+        <v>0.8312653068980773</v>
       </c>
       <c r="P10">
-        <v>0.810871342881036</v>
+        <v>0.8312653068980772</v>
       </c>
       <c r="Q10">
-        <v>185.7076475872475</v>
+        <v>336.260650061979</v>
       </c>
       <c r="R10">
-        <v>185.7076475872475</v>
+        <v>3026.345850557811</v>
       </c>
       <c r="S10">
-        <v>0.1424947777227115</v>
+        <v>0.1202673833541196</v>
       </c>
       <c r="T10">
-        <v>0.1424947777227115</v>
+        <v>0.1202673833541195</v>
       </c>
     </row>
   </sheetData>
